--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkumar\eclipse-workspace\PageObjectModel_Javab\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352C97E8-E460-480E-8718-372F6714FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C5E36C-92EC-4C32-BB2B-FF2BB4BFBC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF5B4E46-44B5-4D3F-8269-43C75D271B63}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{BF5B4E46-44B5-4D3F-8269-43C75D271B63}"/>
   </bookViews>
   <sheets>
     <sheet name="verifyAvailablePets" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>browser</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>edge</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>j2ee</t>
+  </si>
+  <si>
+    <t>rinku</t>
+  </si>
+  <si>
+    <t>rinku1806</t>
   </si>
 </sst>
 </file>
@@ -407,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C004D3-FCE3-4D63-A849-EC420EFBE89E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -541,28 +556,82 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1815237A-57FA-4EF4-B49E-788B6EB767BD}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
